--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -182,7 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -195,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -213,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -251,6 +251,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -267,7 +274,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,10 +282,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -293,11 +300,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -613,9 +620,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="34.29071428571429" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="15" width="13.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
@@ -637,7 +644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -654,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -671,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -688,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -705,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -7701,23 +7708,23 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -7725,7 +7732,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7748,9 +7755,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
